--- a/public/assets/GLHelp/sample1.xlsx
+++ b/public/assets/GLHelp/sample1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asesh\june\10-06-2024\live-file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asesh\August\09-08-2024\live-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A578F82E-2AD2-4587-8BB9-6810120436AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89D57A83-00FC-45C5-BD44-C062B344FB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="0" windowWidth="20160" windowHeight="10920" xr2:uid="{439BF541-599F-4DB0-9C6A-6B513C26BC5E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ITEM CODE</t>
   </si>
@@ -42,9 +42,6 @@
     <t xml:space="preserve">TYPE </t>
   </si>
   <si>
-    <t>VALUATION METHOD</t>
-  </si>
-  <si>
     <t>STORAGE UNITS OF MEASURE</t>
   </si>
   <si>
@@ -82,6 +79,15 @@
   </si>
   <si>
     <t>SALES A/C</t>
+  </si>
+  <si>
+    <t>No.Of Pieces</t>
+  </si>
+  <si>
+    <t>BAG WEIGHT</t>
+  </si>
+  <si>
+    <t>PACKET WEIGHT</t>
   </si>
 </sst>
 </file>
@@ -442,29 +448,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9FFC25-343C-4C26-BF76-129B15616545}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" customWidth="1"/>
+    <col min="17" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,50 +492,79 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{B3B4CC5F-7656-4E67-ABB8-AC2206703CBA}">
+      <formula1>"Consumed,Finished Goods,Packing Material,Raw Material,By Product,By Product Packets,Wastage"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{9882F6CD-855D-43C6-A93C-98008D1D0C58}">
+      <formula1>1</formula1>
+      <formula2>100000000</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576" xr:uid="{408020C0-5A08-465D-8632-8C2E601A4843}">
+      <formula1>"Produced,Purchased,Produced or Purchased"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{E63B6DED-116D-4A3D-B9BF-74CA5A4BD20A}">
+      <formula1>"General Consumption,Sale,Rejected,Produced or Sale,Rejected or Sale,Produced or Rejected,Produced or Sale or Rejected"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{1AD7DC4E-D09A-438B-B2DF-4058084D23D4}">
+      <formula1>1</formula1>
+      <formula2>1000000000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{E5D75B1B-146A-44C2-B69A-C2EA0BB9F0D3}">
+      <formula1>1</formula1>
+      <formula2>10000000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>